--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lta-Tnfrsf1a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lta-Tnfrsf1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2145213333333333</v>
+        <v>0.6836903333333334</v>
       </c>
       <c r="H2">
-        <v>0.643564</v>
+        <v>2.051071</v>
       </c>
       <c r="I2">
-        <v>0.6215559470276452</v>
+        <v>0.7427603292077943</v>
       </c>
       <c r="J2">
-        <v>0.6215559470276451</v>
+        <v>0.7427603292077943</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>47.53430066666667</v>
+        <v>51.402972</v>
       </c>
       <c r="N2">
-        <v>142.602902</v>
+        <v>154.208916</v>
       </c>
       <c r="O2">
-        <v>0.2298097923041026</v>
+        <v>0.2478201393026385</v>
       </c>
       <c r="P2">
-        <v>0.2298097923041026</v>
+        <v>0.2478201393026385</v>
       </c>
       <c r="Q2">
-        <v>10.19712155808089</v>
+        <v>35.143715061004</v>
       </c>
       <c r="R2">
-        <v>91.77409402272801</v>
+        <v>316.293435549036</v>
       </c>
       <c r="S2">
-        <v>0.1428396430918029</v>
+        <v>0.1840709682527492</v>
       </c>
       <c r="T2">
-        <v>0.1428396430918029</v>
+        <v>0.1840709682527492</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2145213333333333</v>
+        <v>0.6836903333333334</v>
       </c>
       <c r="H3">
-        <v>0.643564</v>
+        <v>2.051071</v>
       </c>
       <c r="I3">
-        <v>0.6215559470276452</v>
+        <v>0.7427603292077943</v>
       </c>
       <c r="J3">
-        <v>0.6215559470276451</v>
+        <v>0.7427603292077943</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>155.929707</v>
       </c>
       <c r="O3">
-        <v>0.2512864259922955</v>
+        <v>0.2505855219821376</v>
       </c>
       <c r="P3">
-        <v>0.2512864259922955</v>
+        <v>0.2505855219821376</v>
       </c>
       <c r="Q3">
-        <v>11.150082883972</v>
+        <v>35.53587778513301</v>
       </c>
       <c r="R3">
-        <v>100.350745955748</v>
+        <v>319.8229000661971</v>
       </c>
       <c r="S3">
-        <v>0.1561885724828335</v>
+        <v>0.1861249848021595</v>
       </c>
       <c r="T3">
-        <v>0.1561885724828335</v>
+        <v>0.1861249848021595</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2145213333333333</v>
+        <v>0.6836903333333334</v>
       </c>
       <c r="H4">
-        <v>0.643564</v>
+        <v>2.051071</v>
       </c>
       <c r="I4">
-        <v>0.6215559470276452</v>
+        <v>0.7427603292077943</v>
       </c>
       <c r="J4">
-        <v>0.6215559470276451</v>
+        <v>0.7427603292077943</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>43.88814033333333</v>
+        <v>59.18509700000001</v>
       </c>
       <c r="N4">
-        <v>131.664421</v>
+        <v>177.555291</v>
       </c>
       <c r="O4">
-        <v>0.2121820300953617</v>
+        <v>0.2853387345614992</v>
       </c>
       <c r="P4">
-        <v>0.2121820300953617</v>
+        <v>0.2853387345614991</v>
       </c>
       <c r="Q4">
-        <v>9.414942381827112</v>
+        <v>40.46427869629567</v>
       </c>
       <c r="R4">
-        <v>84.734481436444</v>
+        <v>364.1785082666611</v>
       </c>
       <c r="S4">
-        <v>0.1318830026581709</v>
+        <v>0.2119382924186346</v>
       </c>
       <c r="T4">
-        <v>0.1318830026581709</v>
+        <v>0.2119382924186345</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.2145213333333333</v>
+        <v>0.6836903333333334</v>
       </c>
       <c r="H5">
-        <v>0.643564</v>
+        <v>2.051071</v>
       </c>
       <c r="I5">
-        <v>0.6215559470276452</v>
+        <v>0.7427603292077943</v>
       </c>
       <c r="J5">
-        <v>0.6215559470276451</v>
+        <v>0.7427603292077943</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.490878</v>
+        <v>8.716382666666666</v>
       </c>
       <c r="N5">
-        <v>25.472634</v>
+        <v>26.149148</v>
       </c>
       <c r="O5">
-        <v>0.04105008135794053</v>
+        <v>0.04202276799614693</v>
       </c>
       <c r="P5">
-        <v>0.04105008135794053</v>
+        <v>0.04202276799614692</v>
       </c>
       <c r="Q5">
-        <v>1.821474469730667</v>
+        <v>5.959306570834222</v>
       </c>
       <c r="R5">
-        <v>16.393270227576</v>
+        <v>53.633759137508</v>
       </c>
       <c r="S5">
-        <v>0.02551492219399661</v>
+        <v>0.03121284499104086</v>
       </c>
       <c r="T5">
-        <v>0.02551492219399661</v>
+        <v>0.03121284499104085</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.2145213333333333</v>
+        <v>0.6836903333333334</v>
       </c>
       <c r="H6">
-        <v>0.643564</v>
+        <v>2.051071</v>
       </c>
       <c r="I6">
-        <v>0.6215559470276452</v>
+        <v>0.7427603292077943</v>
       </c>
       <c r="J6">
-        <v>0.6215559470276451</v>
+        <v>0.7427603292077943</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>54.95204066666668</v>
+        <v>36.13945833333333</v>
       </c>
       <c r="N6">
-        <v>164.856122</v>
+        <v>108.418375</v>
       </c>
       <c r="O6">
-        <v>0.2656716702502996</v>
+        <v>0.1742328361575779</v>
       </c>
       <c r="P6">
-        <v>0.2656716702502996</v>
+        <v>0.1742328361575779</v>
       </c>
       <c r="Q6">
-        <v>11.78838503320089</v>
+        <v>24.70819831440278</v>
       </c>
       <c r="R6">
-        <v>106.095465298808</v>
+        <v>222.373784829625</v>
       </c>
       <c r="S6">
-        <v>0.1651298066008413</v>
+        <v>0.1294132387432103</v>
       </c>
       <c r="T6">
-        <v>0.1651298066008412</v>
+        <v>0.1294132387432103</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,31 +835,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.1306146666666667</v>
+        <v>0.174178</v>
       </c>
       <c r="H7">
-        <v>0.391844</v>
+        <v>0.5225340000000001</v>
       </c>
       <c r="I7">
-        <v>0.3784440529723549</v>
+        <v>0.1892267629264251</v>
       </c>
       <c r="J7">
-        <v>0.3784440529723548</v>
+        <v>0.1892267629264251</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>47.53430066666667</v>
+        <v>51.402972</v>
       </c>
       <c r="N7">
-        <v>142.602902</v>
+        <v>154.208916</v>
       </c>
       <c r="O7">
-        <v>0.2298097923041026</v>
+        <v>0.2478201393026385</v>
       </c>
       <c r="P7">
-        <v>0.2298097923041026</v>
+        <v>0.2478201393026385</v>
       </c>
       <c r="Q7">
-        <v>6.208676836809778</v>
+        <v>8.953266857016001</v>
       </c>
       <c r="R7">
-        <v>55.87809153128801</v>
+        <v>80.57940171314401</v>
       </c>
       <c r="S7">
-        <v>0.08697014921229966</v>
+        <v>0.04689420274821401</v>
       </c>
       <c r="T7">
-        <v>0.08697014921229965</v>
+        <v>0.04689420274821401</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,31 +897,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.1306146666666667</v>
+        <v>0.174178</v>
       </c>
       <c r="H8">
-        <v>0.391844</v>
+        <v>0.5225340000000001</v>
       </c>
       <c r="I8">
-        <v>0.3784440529723549</v>
+        <v>0.1892267629264251</v>
       </c>
       <c r="J8">
-        <v>0.3784440529723548</v>
+        <v>0.1892267629264251</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>155.929707</v>
       </c>
       <c r="O8">
-        <v>0.2512864259922955</v>
+        <v>0.2505855219821376</v>
       </c>
       <c r="P8">
-        <v>0.2512864259922955</v>
+        <v>0.2505855219821376</v>
       </c>
       <c r="Q8">
-        <v>6.788902234412001</v>
+        <v>9.053174835282002</v>
       </c>
       <c r="R8">
-        <v>61.10012010970801</v>
+        <v>81.47857351753801</v>
       </c>
       <c r="S8">
-        <v>0.09509785350946201</v>
+        <v>0.04741748716090843</v>
       </c>
       <c r="T8">
-        <v>0.095097853509462</v>
+        <v>0.04741748716090843</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,31 +959,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.1306146666666667</v>
+        <v>0.174178</v>
       </c>
       <c r="H9">
-        <v>0.391844</v>
+        <v>0.5225340000000001</v>
       </c>
       <c r="I9">
-        <v>0.3784440529723549</v>
+        <v>0.1892267629264251</v>
       </c>
       <c r="J9">
-        <v>0.3784440529723548</v>
+        <v>0.1892267629264251</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>43.88814033333333</v>
+        <v>59.18509700000001</v>
       </c>
       <c r="N9">
-        <v>131.664421</v>
+        <v>177.555291</v>
       </c>
       <c r="O9">
-        <v>0.2121820300953617</v>
+        <v>0.2853387345614992</v>
       </c>
       <c r="P9">
-        <v>0.2121820300953617</v>
+        <v>0.2853387345614991</v>
       </c>
       <c r="Q9">
-        <v>5.732434820258223</v>
+        <v>10.308741825266</v>
       </c>
       <c r="R9">
-        <v>51.591913382324</v>
+        <v>92.77867642739402</v>
       </c>
       <c r="S9">
-        <v>0.08029902743719086</v>
+        <v>0.05399372507859494</v>
       </c>
       <c r="T9">
-        <v>0.08029902743719086</v>
+        <v>0.05399372507859492</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,31 +1021,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.1306146666666667</v>
+        <v>0.174178</v>
       </c>
       <c r="H10">
-        <v>0.391844</v>
+        <v>0.5225340000000001</v>
       </c>
       <c r="I10">
-        <v>0.3784440529723549</v>
+        <v>0.1892267629264251</v>
       </c>
       <c r="J10">
-        <v>0.3784440529723548</v>
+        <v>0.1892267629264251</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.490878</v>
+        <v>8.716382666666666</v>
       </c>
       <c r="N10">
-        <v>25.472634</v>
+        <v>26.149148</v>
       </c>
       <c r="O10">
-        <v>0.04105008135794053</v>
+        <v>0.04202276799614693</v>
       </c>
       <c r="P10">
-        <v>0.04105008135794053</v>
+        <v>0.04202276799614692</v>
       </c>
       <c r="Q10">
-        <v>1.109033199677333</v>
+        <v>1.518202100114667</v>
       </c>
       <c r="R10">
-        <v>9.981298797096001</v>
+        <v>13.663818901032</v>
       </c>
       <c r="S10">
-        <v>0.01553515916394393</v>
+        <v>0.007951832357119059</v>
       </c>
       <c r="T10">
-        <v>0.01553515916394392</v>
+        <v>0.007951832357119057</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,371 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.174178</v>
+      </c>
+      <c r="H11">
+        <v>0.5225340000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.1892267629264251</v>
+      </c>
+      <c r="J11">
+        <v>0.1892267629264251</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>36.13945833333333</v>
+      </c>
+      <c r="N11">
+        <v>108.418375</v>
+      </c>
+      <c r="O11">
+        <v>0.1742328361575779</v>
+      </c>
+      <c r="P11">
+        <v>0.1742328361575779</v>
+      </c>
+      <c r="Q11">
+        <v>6.294698573583334</v>
+      </c>
+      <c r="R11">
+        <v>56.65228716225</v>
+      </c>
+      <c r="S11">
+        <v>0.03296951558158866</v>
+      </c>
+      <c r="T11">
+        <v>0.03296951558158866</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.06260399999999999</v>
+      </c>
+      <c r="H12">
+        <v>0.187812</v>
+      </c>
+      <c r="I12">
+        <v>0.06801290786578049</v>
+      </c>
+      <c r="J12">
+        <v>0.06801290786578047</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>51.402972</v>
+      </c>
+      <c r="N12">
+        <v>154.208916</v>
+      </c>
+      <c r="O12">
+        <v>0.2478201393026385</v>
+      </c>
+      <c r="P12">
+        <v>0.2478201393026385</v>
+      </c>
+      <c r="Q12">
+        <v>3.218031659088</v>
+      </c>
+      <c r="R12">
+        <v>28.962284931792</v>
+      </c>
+      <c r="S12">
+        <v>0.01685496830167523</v>
+      </c>
+      <c r="T12">
+        <v>0.01685496830167523</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.06260399999999999</v>
+      </c>
+      <c r="H13">
+        <v>0.187812</v>
+      </c>
+      <c r="I13">
+        <v>0.06801290786578049</v>
+      </c>
+      <c r="J13">
+        <v>0.06801290786578047</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>51.976569</v>
+      </c>
+      <c r="N13">
+        <v>155.929707</v>
+      </c>
+      <c r="O13">
+        <v>0.2505855219821376</v>
+      </c>
+      <c r="P13">
+        <v>0.2505855219821376</v>
+      </c>
+      <c r="Q13">
+        <v>3.253941125676</v>
+      </c>
+      <c r="R13">
+        <v>29.285470131084</v>
+      </c>
+      <c r="S13">
+        <v>0.01704305001906963</v>
+      </c>
+      <c r="T13">
+        <v>0.01704305001906963</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
+      <c r="E14">
         <v>2</v>
       </c>
-      <c r="F11">
+      <c r="F14">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G11">
-        <v>0.1306146666666667</v>
-      </c>
-      <c r="H11">
-        <v>0.391844</v>
-      </c>
-      <c r="I11">
-        <v>0.3784440529723549</v>
-      </c>
-      <c r="J11">
-        <v>0.3784440529723548</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>54.95204066666668</v>
-      </c>
-      <c r="N11">
-        <v>164.856122</v>
-      </c>
-      <c r="O11">
-        <v>0.2656716702502996</v>
-      </c>
-      <c r="P11">
-        <v>0.2656716702502996</v>
-      </c>
-      <c r="Q11">
-        <v>7.17754247432978</v>
-      </c>
-      <c r="R11">
-        <v>64.59788226896802</v>
-      </c>
-      <c r="S11">
-        <v>0.1005418636494584</v>
-      </c>
-      <c r="T11">
-        <v>0.1005418636494584</v>
+      <c r="G14">
+        <v>0.06260399999999999</v>
+      </c>
+      <c r="H14">
+        <v>0.187812</v>
+      </c>
+      <c r="I14">
+        <v>0.06801290786578049</v>
+      </c>
+      <c r="J14">
+        <v>0.06801290786578047</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>59.18509700000001</v>
+      </c>
+      <c r="N14">
+        <v>177.555291</v>
+      </c>
+      <c r="O14">
+        <v>0.2853387345614992</v>
+      </c>
+      <c r="P14">
+        <v>0.2853387345614991</v>
+      </c>
+      <c r="Q14">
+        <v>3.705223812588</v>
+      </c>
+      <c r="R14">
+        <v>33.347014313292</v>
+      </c>
+      <c r="S14">
+        <v>0.01940671706426964</v>
+      </c>
+      <c r="T14">
+        <v>0.01940671706426963</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.06260399999999999</v>
+      </c>
+      <c r="H15">
+        <v>0.187812</v>
+      </c>
+      <c r="I15">
+        <v>0.06801290786578049</v>
+      </c>
+      <c r="J15">
+        <v>0.06801290786578047</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>8.716382666666666</v>
+      </c>
+      <c r="N15">
+        <v>26.149148</v>
+      </c>
+      <c r="O15">
+        <v>0.04202276799614693</v>
+      </c>
+      <c r="P15">
+        <v>0.04202276799614692</v>
+      </c>
+      <c r="Q15">
+        <v>0.5456804204639999</v>
+      </c>
+      <c r="R15">
+        <v>4.911123784175999</v>
+      </c>
+      <c r="S15">
+        <v>0.00285809064798701</v>
+      </c>
+      <c r="T15">
+        <v>0.002858090647987009</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.06260399999999999</v>
+      </c>
+      <c r="H16">
+        <v>0.187812</v>
+      </c>
+      <c r="I16">
+        <v>0.06801290786578049</v>
+      </c>
+      <c r="J16">
+        <v>0.06801290786578047</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>36.13945833333333</v>
+      </c>
+      <c r="N16">
+        <v>108.418375</v>
+      </c>
+      <c r="O16">
+        <v>0.1742328361575779</v>
+      </c>
+      <c r="P16">
+        <v>0.1742328361575779</v>
+      </c>
+      <c r="Q16">
+        <v>2.2624746495</v>
+      </c>
+      <c r="R16">
+        <v>20.3622718455</v>
+      </c>
+      <c r="S16">
+        <v>0.01185008183277897</v>
+      </c>
+      <c r="T16">
+        <v>0.01185008183277897</v>
       </c>
     </row>
   </sheetData>
